--- a/spreadsheet/macrofree/aro_checklist.es.xlsx
+++ b/spreadsheet/macrofree/aro_checklist.es.xlsx
@@ -7266,6 +7266,11 @@
           <t>No verificado</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Gestión de identidades y accesos</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>https://raw.githubusercontent.com/Azure/review-checklists/main/checklists/</t>
@@ -7298,6 +7303,11 @@
           <t>Abrir</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>Hay un elemento de acción asociado a esta comprobación</t>
@@ -7320,6 +7330,11 @@
           <t>Cumplido</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Gestión de operaciones</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>Esta comprobación se ha comprobado y no hay más elementos de acción asociados a ella</t>
@@ -7337,6 +7352,11 @@
           <t>No es necesario</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Automatización de plataformas</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Recomendación entendida, pero no necesaria por los requisitos actuales</t>
@@ -7352,6 +7372,11 @@
       <c r="B6" s="10" t="inlineStr">
         <is>
           <t>N/A</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">

--- a/spreadsheet/macrofree/aro_checklist.es.xlsx
+++ b/spreadsheet/macrofree/aro_checklist.es.xlsx
@@ -1687,11 +1687,7 @@
           <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-enable-arc-enabled-clusters</t>
         </is>
       </c>
-      <c r="I21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
@@ -1737,11 +1733,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/cicd/pipelines/understanding-openshift-pipelines.html</t>
         </is>
       </c>
-      <c r="I22" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
@@ -1787,11 +1779,7 @@
           <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
-      <c r="I23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
-        </is>
-      </c>
+      <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
@@ -1837,11 +1825,7 @@
           <t>https://learn.microsoft.com/azure/openshift/howto-create-a-storageclass</t>
         </is>
       </c>
-      <c r="I24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
-        </is>
-      </c>
+      <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
@@ -1887,11 +1871,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/nodes/clusters/nodes-cluster-limit-ranges.html</t>
         </is>
       </c>
-      <c r="I25" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+      <c r="I25" s="15" t="n"/>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
@@ -1983,11 +1963,6 @@
           <t>https://docs.openshift.com/container-platform/4.13/machine_management/applying-autoscaling.html</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
-        </is>
-      </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
@@ -2033,11 +2008,6 @@
           <t>https://learn.microsoft.com/azure/openshift/support-policies-v4#supported-virtual-machine-sizes</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
-        </is>
-      </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
@@ -2083,11 +2053,6 @@
           <t>https://docs.openshift.com/container-platform/4.13/machine_management/deploying-machine-health-checks.html</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
-        </is>
-      </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
@@ -2133,11 +2098,6 @@
           <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-metric-alerts</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
@@ -2183,11 +2143,6 @@
           <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview#availability-zones</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
@@ -2233,11 +2188,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/machine_management/creating-infrastructure-machinesets.html</t>
         </is>
       </c>
-      <c r="I32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+      <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
@@ -2283,11 +2234,7 @@
           <t>https://learn.microsoft.com/azure/openshift/howto-create-a-backup#create-a-backup-with-velero-to-include-snapshots</t>
         </is>
       </c>
-      <c r="I33" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
-        </is>
-      </c>
+      <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
@@ -2563,11 +2510,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-autoscaling.html</t>
         </is>
       </c>
-      <c r="I39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+      <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
@@ -2613,11 +2556,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-configuring.html#nodes-pods-pod-distruption-about_nodes-pods-configuring</t>
         </is>
       </c>
-      <c r="I40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
-        </is>
-      </c>
+      <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
@@ -2663,11 +2602,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/nodes/scheduling/nodes-scheduler-pod-topology-spread-constraints.html</t>
         </is>
       </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">

--- a/spreadsheet/macrofree/aro_checklist.es.xlsx
+++ b/spreadsheet/macrofree/aro_checklist.es.xlsx
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Use AAD para autenticar usuarios en su clúster de ARO.</t>
+          <t>Use AAD para autenticar a los usuarios del clúster de ARO.</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1161,15 +1161,11 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Defina proyectos de OpenShift para restringir los privilegios RBAC y aislar las cargas de trabajo en el clúster.</t>
+          <t>Al usar la autenticación de AAD, quite el usuario kubeadmin del clúster.</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
-      <c r="E10" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="E10" s="21" t="n"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1178,7 +1174,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/projects/working-with-projects.html</t>
+          <t>https://docs.openshift.com/container-platform/4.14/authentication/remove-kubeadmin.html</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1182,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>483835c9-86bb-4291-8155-a11475e39f54</t>
+          <t>adfec5f9-a82d-46e9-a8d1-5a0c7fed5d15</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1207,13 +1203,13 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Definir los roles RBAC requeridos en OpenShift se limitan a un proyecto o a un clúster.</t>
+          <t>Defina proyectos de OpenShift para restringir los privilegios de RBAC y aislar las cargas de trabajo en el clúster.</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1224,7 +1220,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/authentication/using-rbac.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/projects/working-with-projects.html</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1232,7 +1228,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>0acccd97-9376-4bcd-a375-0ab2ab039da6</t>
+          <t>483835c9-86bb-4291-8155-a11475e39f54</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1253,7 +1249,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Minimice el número de usuarios que tienen derechos de administrador y acceso a secretos.</t>
+          <t>Definir los roles RBAC necesarios en OpenShift se limitan a un proyecto o a un clúster.</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1270,7 +1266,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
+          <t>https://docs.openshift.com/container-platform/4.13/authentication/using-rbac.html</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1278,7 +1274,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>d54d7c89-29db-4107-b532-5ae625ca44e4</t>
+          <t>0acccd97-9376-4bcd-a375-0ab2ab039da6</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1299,7 +1295,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Use la administración de identidades con privilegios en AAD para usuarios de ARO con roles privilegiados.</t>
+          <t>Minimice el número de usuarios que tienen derechos de administrador y acceso a secretos.</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1316,7 +1312,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1324,7 +1320,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>685e2223-ace8-4bb1-8307-ca5f16f154e3</t>
+          <t>d54d7c89-29db-4107-b532-5ae625ca44e4</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1335,23 +1331,23 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>DDoS</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network/IP Protection para proteger la red virtual que usa para el clúster de ARO, a menos que use Azure Firewall o WAF en una suscripción centralizada</t>
+          <t>Use Privileged Identity Management en AAD para usuarios de ARO con roles privilegiados.</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1362,7 +1358,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1370,7 +1366,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>aa369282-9e7e-4216-8836-87af467a1f89</t>
+          <t>685e2223-ace8-4bb1-8307-ca5f16f154e3</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1386,18 +1382,18 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>DDoS</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Todas las aplicaciones web que configure para usar una entrada deben usar cifrado TLS y no deben permitir el acceso a través de HTTP sin cifrar.</t>
+          <t>Use Azure DDoS Network/IP Protection para proteger la red virtual que usa para el clúster de ARO, a menos que use Azure Firewall o WAF en una suscripción centralizada</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1408,7 +1404,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/networking/routes/secured-routes.html</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1416,7 +1412,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>35bda433-24f1-4481-8533-182aa5174269</t>
+          <t>aa369282-9e7e-4216-8836-87af467a1f89</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1432,18 +1428,18 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door con WAF para publicar de forma segura aplicaciones ARO en Internet, especialmente en entornos de varias regiones.</t>
+          <t>Todas las aplicaciones web que configure para usar una entrada deben usar el cifrado TLS y no deben permitir el acceso a través de HTTP sin cifrar.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1454,7 +1450,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://docs.openshift.com/container-platform/4.13/networking/routes/secured-routes.html</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1462,7 +1458,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>44008ae7-d7e4-4743-876c-8bdbf55bce61</t>
+          <t>35bda433-24f1-4481-8533-182aa5174269</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1483,7 +1479,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Si expone una aplicación en ARO con Azure Front Door, use un vínculo privado para conectar Front Door con el enrutador ARO.</t>
+          <t>Use Azure Front Door con WAF para publicar de forma segura aplicaciones ARO en Internet, especialmente en entornos de varias regiones.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1500,7 +1496,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-secure-openshift-with-front-door</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1508,7 +1504,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>9e8a03f9-7879-4424-b626-786d60b96c97</t>
+          <t>44008ae7-d7e4-4743-876c-8bdbf55bce61</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1529,7 +1525,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Si su directiva de seguridad requiere que inspeccione todo el tráfico saliente de Internet generado en el clúster de ARO, proteja el tráfico de red de salida mediante Azure Firewall o un NVA.</t>
+          <t>Si expone una aplicación en ARO con Azure Front Door, use Private Link para conectar Front Door con el enrutador de ARO.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1546,7 +1542,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-restrict-egress</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-secure-openshift-with-front-door</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1554,7 +1550,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>be985190-4838-435c-a86b-b2912155a114</t>
+          <t>9e8a03f9-7879-4424-b626-786d60b96c97</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1570,18 +1566,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>Acceso privado</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Si su política de seguridad requiere que utilice una dirección IP privada para la API de OpenShift, implemente un clúster ARO privado.</t>
+          <t>Si la directiva de seguridad requiere que inspeccione todo el tráfico saliente de Internet que se genera en el clúster de ARO, proteja el tráfico de red de salida mediante Azure Firewall o una aplicación virtual de red.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1592,7 +1588,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-private-cluster-4x</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-restrict-egress</t>
         </is>
       </c>
       <c r="I19" s="15" t="n"/>
@@ -1600,7 +1596,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>75e39f54-0acc-4cd9-9937-6bcda3750ab2</t>
+          <t>be985190-4838-435c-a86b-b2912155a114</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1621,13 +1617,13 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Private Link para proteger las conexiones de red a los servicios administrados de Azure, incluido Azure Container Registry.</t>
+          <t>Si la política de seguridad requiere que utilice una dirección IP privada para la API de OpenShift, implemente un clúster de ARO privado.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1638,7 +1634,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-private-cluster-4x</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1646,7 +1642,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>ab039da6-d54d-47c8-a29d-b107d5325ae6</t>
+          <t>75e39f54-0acc-4cd9-9937-6bcda3750ab2</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1657,23 +1653,23 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Gestión de operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Acceso privado</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Establezca un proceso de supervisión utilizando la integración incorporada de Prometheus, OpenShift Logging o Container Insights.</t>
+          <t>Use Azure Private Link para proteger las conexiones de red a los servicios administrados de Azure, incluida Azure Container Registry.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1684,19 +1680,15 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-enable-arc-enabled-clusters</t>
-        </is>
-      </c>
-      <c r="I21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+        </is>
+      </c>
+      <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>25ca44e4-685e-4222-9ace-8bb12307ca5f</t>
+          <t>ab039da6-d54d-47c8-a29d-b107d5325ae6</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1717,13 +1709,13 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Automatice el proceso de entrega de aplicaciones a través de prácticas de DevOps y soluciones de CI/CD, como Pipelines/GitOps proporcionados por OpenShift.</t>
+          <t>Establezca un proceso de supervisión mediante la integración incorporada de Prometheus, OpenShift Logging o Container Insights.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1734,19 +1726,15 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/cicd/pipelines/understanding-openshift-pipelines.html</t>
-        </is>
-      </c>
-      <c r="I22" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-enable-arc-enabled-clusters</t>
+        </is>
+      </c>
+      <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>16f154e3-aa36-4928-89e7-e216183687af</t>
+          <t>25ca44e4-685e-4222-9ace-8bb12307ca5f</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1767,13 +1755,13 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Siempre que sea posible, elimine el estado del servicio del interior de los contenedores. En su lugar, use una plataforma como servicio (PaaS) de Azure que admita la replicación multiregión.</t>
+          <t>Automatice el proceso de entrega de aplicaciones a través de prácticas de DevOps y soluciones de CI/CD, como Pipelines/GitOps proporcionado por OpenShift.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1784,19 +1772,15 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
-        </is>
-      </c>
-      <c r="I23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/cicd/pipelines/understanding-openshift-pipelines.html</t>
+        </is>
+      </c>
+      <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>467a1f89-35bd-4a43-924f-14811533182a</t>
+          <t>16f154e3-aa36-4928-89e7-e216183687af</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1817,7 +1801,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Use el almacenamiento RWX con la clase de almacenamiento integrada de Azure Files.</t>
+          <t>Siempre que sea posible, quite el estado de servicio del interior de los contenedores. En su lugar, use una plataforma como servicio (PaaS) de Azure que admita la replicación en varias regiones.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1834,19 +1818,15 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-storageclass</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/guide/design-principles/managed-services</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>1b7da8cf-aa66-4e15-b4d5-ada97dc3e232</t>
+          <t>467a1f89-35bd-4a43-924f-14811533182a</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1862,18 +1842,18 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Use solicitudes y límites de pod para administrar los recursos informáticos dentro de un clúster.</t>
+          <t>Use el almacenamiento RWX con la clase de almacenamiento Azure Files incorporada.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1884,19 +1864,15 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/clusters/nodes-cluster-limit-ranges.html</t>
-        </is>
-      </c>
-      <c r="I25" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-storageclass</t>
+        </is>
+      </c>
+      <c r="I25" s="15" t="n"/>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>6bb235c7-05e1-4696-bded-fa8a4c8cdec4</t>
+          <t>1b7da8cf-aa66-4e15-b4d5-ada97dc3e232</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1917,7 +1893,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Aplicar cuotas de recursos en los proyectos.</t>
+          <t>Utilice las solicitudes y los límites de pod para administrar los recursos informáticos dentro de un clúster.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1934,7 +1910,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/quotas/quotas-setting-per-project.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/clusters/nodes-cluster-limit-ranges.html</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1942,7 +1918,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>c620c30c-14ee-4b7f-9ae8-d9b3fec228e7</t>
+          <t>6bb235c7-05e1-4696-bded-fa8a4c8cdec4</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1963,13 +1939,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Defina ClusterAutoScaler y MachineAutoScaler para escalar máquinas cuando el clúster se quede sin recursos para admitir más implementaciones.</t>
+          <t>Aplicar cuotas de recursos en los proyectos.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1980,19 +1956,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/applying-autoscaling.html</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/quotas/quotas-setting-per-project.html</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>87ab177a-db59-4f6b-a613-334fd09dc234</t>
+          <t>c620c30c-14ee-4b7f-9ae8-d9b3fec228e7</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2008,12 +1979,12 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Use tamaños de máquina virtual que sean lo suficientemente grandes como para contener varias instancias de contenedor para obtener los beneficios de una mayor densidad, pero no tan grandes como para que el clúster no pueda manejar la carga de trabajo de un nodo con errores.</t>
+          <t>Defina ClusterAutoScaler y MachineAutoScaler para escalar máquinas cuando el clúster se quede sin recursos para admitir más implementaciones.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2030,19 +2001,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/support-policies-v4#supported-virtual-machine-sizes</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/applying-autoscaling.html</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>19db6128-1269-4040-a4ba-4d3e0804276d</t>
+          <t>87ab177a-db59-4f6b-a613-334fd09dc234</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2063,7 +2029,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Implemente comprobaciones de estado de la máquina para reparar automáticamente las máquinas dañadas en un grupo de máquinas.</t>
+          <t>Use tamaños de máquina virtual que sean lo suficientemente grandes como para contener varias instancias de contenedor para obtener los beneficios de una mayor densidad, pero no tan grandes como para que el clúster no pueda manejar la carga de trabajo de un nodo con errores.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2080,19 +2046,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/deploying-machine-health-checks.html</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/azure/openshift/support-policies-v4#supported-virtual-machine-sizes</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>4b98b15c-8b31-4aa5-aceb-58889135e227</t>
+          <t>19db6128-1269-4040-a4ba-4d3e0804276d</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2113,7 +2074,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Use un sistema de alertas para proporcionar notificaciones cuando las cosas necesiten una acción directa: alertas de métricas de Container Insights o interfaz de usuario de alertas integrada.</t>
+          <t>Implemente comprobaciones de estado de máquinas para reparar automáticamente las máquinas dañadas en un grupo de máquinas.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2130,19 +2091,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-metric-alerts</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/deploying-machine-health-checks.html</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>896d31b6-6c67-4ba5-a119-c08e8f5d587c</t>
+          <t>4b98b15c-8b31-4aa5-aceb-58889135e227</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2163,7 +2119,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que el clúster se crea en una región que admita zonas de disponibilidad y cree un conjunto de máquinas para cada zona de disponibilidad.</t>
+          <t>Utilice un sistema de alertas para proporcionar notificaciones cuando las cosas requieran una acción directa: alertas de métricas de Container Insights o interfaz de usuario de alertas integrada.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2180,19 +2136,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview#availability-zones</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>7e9ced16-acd1-476e-b9b2-41a998a57ae7</t>
+          <t>896d31b6-6c67-4ba5-a119-c08e8f5d587c</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2213,13 +2164,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Cree conjuntos de máquinas de infraestructura para contener componentes de infraestructura. Aplique etiquetas específicas de Kubernetes a estas máquinas y, a continuación, actualice los componentes de infraestructura para que se ejecuten solo en esas máquinas.</t>
+          <t>Asegúrese de que el clúster se crea en una región que admita zonas de disponibilidad y cree un conjunto de máquinas para cada zona de disponibilidad.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2230,19 +2181,15 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/creating-infrastructure-machinesets.html</t>
-        </is>
-      </c>
-      <c r="I32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview#availability-zones</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>7b997e71-1b7d-4a8c-baa6-6e15d4d5ada9</t>
+          <t>7e9ced16-acd1-476e-b9b2-41a998a57ae7</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2263,13 +2210,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Cree una copia de seguridad de la aplicación y planifique la restauración e incluya volúmenes persistentes en la copia de seguridad.</t>
+          <t>Cree conjuntos de máquinas de infraestructura para contener componentes de infraestructura. Aplique etiquetas específicas de Kubernetes a estas máquinas y, a continuación, actualice los componentes de la infraestructura para que se ejecuten solo en esas máquinas.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2280,19 +2227,15 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-backup#create-a-backup-with-velero-to-include-snapshots</t>
-        </is>
-      </c>
-      <c r="I33" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/creating-infrastructure-machinesets.html</t>
+        </is>
+      </c>
+      <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>7dc3e232-6bb2-435c-905e-1696fdedfa8a</t>
+          <t>7b997e71-1b7d-4a8c-baa6-6e15d4d5ada9</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2313,13 +2256,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Use prioridades de pods, de modo que en caso de recursos limitados se ejecuten los pods más críticos.</t>
+          <t>Cree una copia de seguridad de la aplicación y planifique la restauración e incluya volúmenes persistentes en la copia de seguridad.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2330,7 +2273,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-priority.html</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-backup#create-a-backup-with-velero-to-include-snapshots</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2338,7 +2281,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>81c12318-1a64-4174-8583-3fb4ae3c2df7</t>
+          <t>7dc3e232-6bb2-435c-905e-1696fdedfa8a</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2354,12 +2297,12 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Regule las funciones del clúster mediante complementos de admisión, que se utilizan habitualmente para aplicar directivas de seguridad, limitaciones de recursos o requisitos de configuración.</t>
+          <t>Utilice las prioridades de los pods, de modo que, en caso de recursos limitados, se ejecuten los pods más críticos.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2376,7 +2319,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/architecture/admission-plug-ins.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-priority.html</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2384,7 +2327,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>43166c3b-cbe0-45bb-b209-d4a0da577784</t>
+          <t>81c12318-1a64-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2405,7 +2348,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Almacene las imágenes de contenedor en Azure Container Registry y replique geográficamente el Registro en cada región.</t>
+          <t>Regule las funciones de clúster mediante complementos de admisión, que se utilizan normalmente para aplicar la política de seguridad, las limitaciones de recursos o los requisitos de configuración.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2422,7 +2365,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
+          <t>https://docs.openshift.com/container-platform/4.13/architecture/admission-plug-ins.html</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2430,7 +2373,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>24d21678-5d2f-4a56-a56a-d48408fe8273</t>
+          <t>43166c3b-cbe0-45bb-b209-d4a0da577784</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2446,18 +2389,18 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Carga de trabajo</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Optimice los valores de solicitud de CPU y memoria, y maximice la eficiencia de los recursos del clúster mediante el escalador automático de pods verticales.</t>
+          <t>Almacene las imágenes de contenedor en Azure Container Registry y realice una replicación geográfica del registro en cada región.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2468,7 +2411,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-vertical-autoscaler.html</t>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2476,7 +2419,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>4c486ba2-80dc-4059-8cf7-5ee8e1309ccc</t>
+          <t>24d21678-5d2f-4a56-a56a-d48408fe8273</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2497,7 +2440,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Agregue sondeos de estado a los pods para supervisar el estado de la aplicación. Asegúrese de que los pods contengan livenessProbe y readinessProbe. Utilice sondeos de inicio para determinar el punto en el que se ha iniciado la aplicación.</t>
+          <t>Optimice los valores de solicitud de CPU y memoria, y maximice la eficiencia de los recursos del clúster mediante el escalador automático vertical de pods.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2514,7 +2457,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/application-health.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-vertical-autoscaler.html</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2522,7 +2465,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>d579366b-cda2-4750-aa1a-bfe9d55d14c3</t>
+          <t>4c486ba2-80dc-4059-8cf7-5ee8e1309ccc</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2543,7 +2486,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Escale pods para satisfacer la demanda utilizando el escalador automático de pods horizontales.</t>
+          <t>Agregue sondeos de estado a los pods para supervisar el estado de la aplicación. Asegúrese de que los pods contengan livenessProbe y readinessProbe. Utilice Sondeos de inicio para determinar el punto en el que se ha iniciado la aplicación.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2560,19 +2503,15 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-autoscaling.html</t>
-        </is>
-      </c>
-      <c r="I39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/application-health.html</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>c4929cb1-b3d1-4325-ae12-4ba34d0685ed</t>
+          <t>d579366b-cda2-4750-aa1a-bfe9d55d14c3</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2593,7 +2532,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Utilice presupuestos de interrupción para asegurarse de que existe el número necesario de réplicas de pods para manejar la carga esperada de las aplicaciones.</t>
+          <t>Escale los pods para satisfacer la demanda mediante el escalador automático de pods horizontal.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2610,19 +2549,15 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-configuring.html#nodes-pods-pod-distruption-about_nodes-pods-configuring</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-autoscaling.html</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>dce9be3b-b0dd-4b3b-95fb-2ec14eeaa359</t>
+          <t>c4929cb1-b3d1-4325-ae12-4ba34d0685ed</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2643,7 +2578,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Utilice restricciones de topología de pod para programar automáticamente pods en los nodos de todo el clúster.</t>
+          <t>Utilice presupuestos de interrupción para asegurarse de que existe el número necesario de réplicas de pods para controlar la carga esperada de aplicaciones.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2660,19 +2595,15 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/scheduling/nodes-scheduler-pod-topology-spread-constraints.html</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-configuring.html#nodes-pods-pod-distruption-about_nodes-pods-configuring</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6791b4935ada</t>
+          <t>dce9be3b-b0dd-4b3b-95fb-2ec14eeaa359</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2683,7 +2614,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas</t>
+          <t>Gestión de operaciones</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
@@ -2693,13 +2624,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Considere estrategias azul/verde o canarias para implementar nuevas versiones de aplicaciones.</t>
+          <t>Utilice las restricciones de topología de pods para programar automáticamente pods en los nodos de todo el clúster.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2710,7 +2641,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/deployments/route-based-deployment-strategies.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/scheduling/nodes-scheduler-pod-topology-spread-constraints.html</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2718,7 +2649,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>42324ece-81c1-4231-a1a6-417415833fb4</t>
+          <t>2829e2ed-b217-4367-9aff-6791b4935ada</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2729,7 +2660,7 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
@@ -2739,7 +2670,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de utilizar Red Hat OpenShift GitOps. Red Hat OpenShift GitOps utiliza Argo CD para mantener los recursos del clúster y admitir CI/CD de aplicaciones.</t>
+          <t>Considere las estrategias azul/verde o canary para implementar nuevas versiones de la aplicación.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2756,7 +2687,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/cicd/gitops/understanding-openshift-gitops.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/deployments/route-based-deployment-strategies.html</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2764,7 +2695,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>ae3c2df7-4316-46c3-acbe-05bbe209d4a0</t>
+          <t>42324ece-81c1-4231-a1a6-417415833fb4</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2775,23 +2706,23 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Plano de control</t>
+          <t>Carga de trabajo</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Mantenga sus clústeres en la última versión de OpenShift para evitar posibles problemas de seguridad o actualización.</t>
+          <t>Considere la posibilidad de utilizar Red Hat OpenShift GitOps. Red Hat OpenShift GitOps utiliza Argo CD para mantener los recursos del clúster y dar soporte a CI/CD de aplicaciones.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2802,7 +2733,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/support-lifecycle</t>
+          <t>https://docs.openshift.com/container-platform/4.13/cicd/gitops/understanding-openshift-gitops.html</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2810,7 +2741,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>da577784-24d2-4167-a5d2-fa56c56ad484</t>
+          <t>ae3c2df7-4316-46c3-acbe-05bbe209d4a0</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2831,7 +2762,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Conecte clústeres de Red Hat OpenShift de Azure a Kubernetes habilitado para Azure Arc.</t>
+          <t>Mantenga los clústeres en la versión más reciente de OpenShift para evitar posibles problemas de seguridad o actualización.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2848,14 +2779,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/quickstart-connect-cluster</t>
+          <t>https://learn.microsoft.com/azure/openshift/support-lifecycle</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>08fe8273-4c48-46ba-880d-c0591cf75ee8</t>
+          <t>da577784-24d2-4167-a5d2-fa56c56ad484</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2871,18 +2802,18 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Plano de control</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Para los clústeres de Azure Red Hat OpenShift 4, los datos etcd no se cifran de forma predeterminada, pero se recomienda habilitar el cifrado etcd para proporcionar otra capa de seguridad de datos.</t>
+          <t>Conecte clústeres de Red Hat OpenShift en Azure a Kubernetes habilitado para Azure Arc.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2893,7 +2824,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.10/security/encrypting-etcd.html</t>
+          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/quickstart-connect-cluster</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2901,7 +2832,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>e1309ccc-d579-4366-acda-2750aa1abfe9</t>
+          <t>08fe8273-4c48-46ba-880d-c0591cf75ee8</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2917,18 +2848,18 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Postura</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Use Microsoft Defender para contenedores compatibles con Kubernetes habilitado para Arc para proteger clústeres, contenedores y aplicaciones.</t>
+          <t>En el caso de los clústeres de Red Hat OpenShift 4 en Azure, los datos etcd no se cifran de forma predeterminada, pero se recomienda habilitar el cifrado etcd para proporcionar otra capa de seguridad de datos.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2939,7 +2870,7 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
+          <t>https://docs.openshift.com/container-platform/4.10/security/encrypting-etcd.html</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -2947,7 +2878,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>d55d14c3-c492-49cb-8b3d-1325ae124ba3</t>
+          <t>e1309ccc-d579-4366-acda-2750aa1abfe9</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2963,12 +2894,12 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Postura</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Para las aplicaciones que requieren acceso a información confidencial, utilice una entidad de servicio y AKV Secrets Provider con la extensión para clústeres de Kubernetes habilitados para Arc.</t>
+          <t>Use Microsoft Defender para contenedores compatible con Kubernetes habilitado para Arc para proteger clústeres, contenedores y aplicaciones.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2985,14 +2916,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/tutorial-akv-secrets-provider</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>4d0685ed-dce9-4be3-ab0d-db3b55fb2ec1</t>
+          <t>d55d14c3-c492-49cb-8b3d-1325ae124ba3</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3008,12 +2939,12 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Carga de trabajo</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Acceso seguro de pods a los recursos. Proporcione el menor número de permisos y evite el uso de la raíz o la escalada privilegiada.</t>
+          <t>En el caso de las aplicaciones que requieren acceso a información confidencial, use una entidad de servicio y el proveedor de secretos AKV con la extensión para clústeres de Kubernetes habilitados para Arc.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3030,14 +2961,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/developer-best-practices-pod-security#secure-pod-access-to-resources</t>
+          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/tutorial-akv-secrets-provider</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>4eeaa359-2829-4e2e-bb21-73676aff6791</t>
+          <t>4d0685ed-dce9-4be3-ab0d-db3b55fb2ec1</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3058,7 +2989,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Supervise y aplique la configuración mediante la extensión de directiva de Azure.</t>
+          <t>Proteja el acceso de los pods a los recursos. Proporcione el menor número de permisos y evite el uso de la raíz o la escalación con privilegios.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3075,7 +3006,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes#install-azure-policy-extension-for-azure-arc-enabled-kubernetes</t>
+          <t>https://learn.microsoft.com/azure/aks/developer-best-practices-pod-security#secure-pod-access-to-resources</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -3083,7 +3014,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>b4935ada-4232-44ec-b81c-123181a64174</t>
+          <t>4eeaa359-2829-4e2e-bb21-73676aff6791</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3104,13 +3035,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Escanea tus imágenes en busca de vulnerabilidades con Microsoft Defender o cualquier otra solución de escaneo de imágenes.</t>
+          <t>Supervise y aplique la configuración mediante la extensión de Azure Policy.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3121,7 +3052,7 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes#install-azure-policy-extension-for-azure-arc-enabled-kubernetes</t>
         </is>
       </c>
       <c r="I51" s="15" t="n"/>
@@ -3129,7 +3060,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>15833fb4-ae3c-42df-9431-66c3bcbe05bb</t>
+          <t>b4935ada-4232-44ec-b81c-123181a64174</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3150,13 +3081,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Implemente una instancia dedicada y privada de Azure Container Registry en cada suscripción de zona de aterrizaje.</t>
+          <t>Examine las imágenes en busca de vulnerabilidades con Microsoft Defender o cualquier otra solución de análisis de imágenes.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3167,7 +3098,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3175,7 +3106,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>e209d4a0-da57-4778-924d-216785d2fa56</t>
+          <t>15833fb4-ae3c-42df-9431-66c3bcbe05bb</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3184,16 +3115,45 @@
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="n"/>
-      <c r="B53" s="21" t="n"/>
-      <c r="C53" s="21" t="n"/>
+      <c r="A53" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="B53" s="21" t="inlineStr">
+        <is>
+          <t>Carga de trabajo</t>
+        </is>
+      </c>
+      <c r="C53" s="21" t="inlineStr">
+        <is>
+          <t>Implemente una instancia dedicada y privada de Azure Container Registry en cada suscripción de zona de aterrizaje.</t>
+        </is>
+      </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="n"/>
+      <c r="H53" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+        </is>
+      </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="n"/>
+      <c r="L53" s="25" t="inlineStr">
+        <is>
+          <t>e209d4a0-da57-4778-924d-216785d2fa56</t>
+        </is>
+      </c>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
@@ -7177,7 +7137,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F53" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F54" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7337,7 +7297,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta comprobación se ha comprobado y no hay más elementos de acción asociados a ella</t>
+          <t>Esta comprobación se ha verificado y no hay más elementos de acción asociados a ella</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -7354,7 +7314,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Automatización de plataformas</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">

--- a/spreadsheet/macrofree/aro_checklist.es.xlsx
+++ b/spreadsheet/macrofree/aro_checklist.es.xlsx
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Use AAD para autenticar usuarios en su clúster de ARO.</t>
+          <t>Use AAD para autenticar a los usuarios del clúster de ARO.</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1161,15 +1161,11 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Defina proyectos de OpenShift para restringir los privilegios RBAC y aislar las cargas de trabajo en el clúster.</t>
+          <t>Al usar la autenticación de AAD, quite el usuario kubeadmin del clúster.</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
-      <c r="E10" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="E10" s="21" t="n"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1178,7 +1174,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/projects/working-with-projects.html</t>
+          <t>https://docs.openshift.com/container-platform/4.14/authentication/remove-kubeadmin.html</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1182,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>483835c9-86bb-4291-8155-a11475e39f54</t>
+          <t>adfec5f9-a82d-46e9-a8d1-5a0c7fed5d15</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1207,13 +1203,13 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Definir los roles RBAC requeridos en OpenShift se limitan a un proyecto o a un clúster.</t>
+          <t>Defina proyectos de OpenShift para restringir los privilegios de RBAC y aislar las cargas de trabajo en el clúster.</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1224,7 +1220,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/authentication/using-rbac.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/projects/working-with-projects.html</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1232,7 +1228,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>0acccd97-9376-4bcd-a375-0ab2ab039da6</t>
+          <t>483835c9-86bb-4291-8155-a11475e39f54</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1253,7 +1249,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Minimice el número de usuarios que tienen derechos de administrador y acceso a secretos.</t>
+          <t>Definir los roles RBAC necesarios en OpenShift se limitan a un proyecto o a un clúster.</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1270,7 +1266,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
+          <t>https://docs.openshift.com/container-platform/4.13/authentication/using-rbac.html</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1278,7 +1274,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>d54d7c89-29db-4107-b532-5ae625ca44e4</t>
+          <t>0acccd97-9376-4bcd-a375-0ab2ab039da6</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1299,7 +1295,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Use la administración de identidades con privilegios en AAD para usuarios de ARO con roles privilegiados.</t>
+          <t>Minimice el número de usuarios que tienen derechos de administrador y acceso a secretos.</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1316,7 +1312,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1324,7 +1320,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>685e2223-ace8-4bb1-8307-ca5f16f154e3</t>
+          <t>d54d7c89-29db-4107-b532-5ae625ca44e4</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1335,23 +1331,23 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>DDoS</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network/IP Protection para proteger la red virtual que usa para el clúster de ARO, a menos que use Azure Firewall o WAF en una suscripción centralizada</t>
+          <t>Use Privileged Identity Management en AAD para usuarios de ARO con roles privilegiados.</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1362,7 +1358,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1370,7 +1366,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>aa369282-9e7e-4216-8836-87af467a1f89</t>
+          <t>685e2223-ace8-4bb1-8307-ca5f16f154e3</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1386,18 +1382,18 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>DDoS</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Todas las aplicaciones web que configure para usar una entrada deben usar cifrado TLS y no deben permitir el acceso a través de HTTP sin cifrar.</t>
+          <t>Use Azure DDoS Network/IP Protection para proteger la red virtual que usa para el clúster de ARO, a menos que use Azure Firewall o WAF en una suscripción centralizada</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1408,7 +1404,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/networking/routes/secured-routes.html</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1416,7 +1412,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>35bda433-24f1-4481-8533-182aa5174269</t>
+          <t>aa369282-9e7e-4216-8836-87af467a1f89</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1432,18 +1428,18 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door con WAF para publicar de forma segura aplicaciones ARO en Internet, especialmente en entornos de varias regiones.</t>
+          <t>Todas las aplicaciones web que configure para usar una entrada deben usar el cifrado TLS y no deben permitir el acceso a través de HTTP sin cifrar.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1454,7 +1450,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://docs.openshift.com/container-platform/4.13/networking/routes/secured-routes.html</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1462,7 +1458,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>44008ae7-d7e4-4743-876c-8bdbf55bce61</t>
+          <t>35bda433-24f1-4481-8533-182aa5174269</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1483,7 +1479,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Si expone una aplicación en ARO con Azure Front Door, use un vínculo privado para conectar Front Door con el enrutador ARO.</t>
+          <t>Use Azure Front Door con WAF para publicar de forma segura aplicaciones ARO en Internet, especialmente en entornos de varias regiones.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1500,7 +1496,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-secure-openshift-with-front-door</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1508,7 +1504,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>9e8a03f9-7879-4424-b626-786d60b96c97</t>
+          <t>44008ae7-d7e4-4743-876c-8bdbf55bce61</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1529,7 +1525,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Si su directiva de seguridad requiere que inspeccione todo el tráfico saliente de Internet generado en el clúster de ARO, proteja el tráfico de red de salida mediante Azure Firewall o un NVA.</t>
+          <t>Si expone una aplicación en ARO con Azure Front Door, use Private Link para conectar Front Door con el enrutador de ARO.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1546,7 +1542,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-restrict-egress</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-secure-openshift-with-front-door</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1554,7 +1550,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>be985190-4838-435c-a86b-b2912155a114</t>
+          <t>9e8a03f9-7879-4424-b626-786d60b96c97</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1570,18 +1566,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>Acceso privado</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Si su política de seguridad requiere que utilice una dirección IP privada para la API de OpenShift, implemente un clúster ARO privado.</t>
+          <t>Si la directiva de seguridad requiere que inspeccione todo el tráfico saliente de Internet que se genera en el clúster de ARO, proteja el tráfico de red de salida mediante Azure Firewall o una aplicación virtual de red.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1592,7 +1588,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-private-cluster-4x</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-restrict-egress</t>
         </is>
       </c>
       <c r="I19" s="15" t="n"/>
@@ -1600,7 +1596,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>75e39f54-0acc-4cd9-9937-6bcda3750ab2</t>
+          <t>be985190-4838-435c-a86b-b2912155a114</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1621,13 +1617,13 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Private Link para proteger las conexiones de red a los servicios administrados de Azure, incluido Azure Container Registry.</t>
+          <t>Si la política de seguridad requiere que utilice una dirección IP privada para la API de OpenShift, implemente un clúster de ARO privado.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1638,7 +1634,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-private-cluster-4x</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1646,7 +1642,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>ab039da6-d54d-47c8-a29d-b107d5325ae6</t>
+          <t>75e39f54-0acc-4cd9-9937-6bcda3750ab2</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1657,23 +1653,23 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Gestión de operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Acceso privado</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Establezca un proceso de supervisión utilizando la integración incorporada de Prometheus, OpenShift Logging o Container Insights.</t>
+          <t>Use Azure Private Link para proteger las conexiones de red a los servicios administrados de Azure, incluida Azure Container Registry.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1684,19 +1680,15 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-enable-arc-enabled-clusters</t>
-        </is>
-      </c>
-      <c r="I21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+        </is>
+      </c>
+      <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>25ca44e4-685e-4222-9ace-8bb12307ca5f</t>
+          <t>ab039da6-d54d-47c8-a29d-b107d5325ae6</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1717,13 +1709,13 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Automatice el proceso de entrega de aplicaciones a través de prácticas de DevOps y soluciones de CI/CD, como Pipelines/GitOps proporcionados por OpenShift.</t>
+          <t>Establezca un proceso de supervisión mediante la integración incorporada de Prometheus, OpenShift Logging o Container Insights.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1734,19 +1726,15 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/cicd/pipelines/understanding-openshift-pipelines.html</t>
-        </is>
-      </c>
-      <c r="I22" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-enable-arc-enabled-clusters</t>
+        </is>
+      </c>
+      <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>16f154e3-aa36-4928-89e7-e216183687af</t>
+          <t>25ca44e4-685e-4222-9ace-8bb12307ca5f</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1767,13 +1755,13 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Siempre que sea posible, elimine el estado del servicio del interior de los contenedores. En su lugar, use una plataforma como servicio (PaaS) de Azure que admita la replicación multiregión.</t>
+          <t>Automatice el proceso de entrega de aplicaciones a través de prácticas de DevOps y soluciones de CI/CD, como Pipelines/GitOps proporcionado por OpenShift.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1784,19 +1772,15 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
-        </is>
-      </c>
-      <c r="I23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/cicd/pipelines/understanding-openshift-pipelines.html</t>
+        </is>
+      </c>
+      <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>467a1f89-35bd-4a43-924f-14811533182a</t>
+          <t>16f154e3-aa36-4928-89e7-e216183687af</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1817,7 +1801,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Use el almacenamiento RWX con la clase de almacenamiento integrada de Azure Files.</t>
+          <t>Siempre que sea posible, quite el estado de servicio del interior de los contenedores. En su lugar, use una plataforma como servicio (PaaS) de Azure que admita la replicación en varias regiones.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1834,19 +1818,15 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-storageclass</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/guide/design-principles/managed-services</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>1b7da8cf-aa66-4e15-b4d5-ada97dc3e232</t>
+          <t>467a1f89-35bd-4a43-924f-14811533182a</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1862,18 +1842,18 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Use solicitudes y límites de pod para administrar los recursos informáticos dentro de un clúster.</t>
+          <t>Use el almacenamiento RWX con la clase de almacenamiento Azure Files incorporada.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1884,19 +1864,15 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/clusters/nodes-cluster-limit-ranges.html</t>
-        </is>
-      </c>
-      <c r="I25" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-storageclass</t>
+        </is>
+      </c>
+      <c r="I25" s="15" t="n"/>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>6bb235c7-05e1-4696-bded-fa8a4c8cdec4</t>
+          <t>1b7da8cf-aa66-4e15-b4d5-ada97dc3e232</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1917,7 +1893,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Aplicar cuotas de recursos en los proyectos.</t>
+          <t>Utilice las solicitudes y los límites de pod para administrar los recursos informáticos dentro de un clúster.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1934,7 +1910,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/quotas/quotas-setting-per-project.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/clusters/nodes-cluster-limit-ranges.html</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1942,7 +1918,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>c620c30c-14ee-4b7f-9ae8-d9b3fec228e7</t>
+          <t>6bb235c7-05e1-4696-bded-fa8a4c8cdec4</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1963,13 +1939,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Defina ClusterAutoScaler y MachineAutoScaler para escalar máquinas cuando el clúster se quede sin recursos para admitir más implementaciones.</t>
+          <t>Aplicar cuotas de recursos en los proyectos.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1980,19 +1956,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/applying-autoscaling.html</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/quotas/quotas-setting-per-project.html</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>87ab177a-db59-4f6b-a613-334fd09dc234</t>
+          <t>c620c30c-14ee-4b7f-9ae8-d9b3fec228e7</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2008,12 +1979,12 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Fiabilidad</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Use tamaños de máquina virtual que sean lo suficientemente grandes como para contener varias instancias de contenedor para obtener los beneficios de una mayor densidad, pero no tan grandes como para que el clúster no pueda manejar la carga de trabajo de un nodo con errores.</t>
+          <t>Defina ClusterAutoScaler y MachineAutoScaler para escalar máquinas cuando el clúster se quede sin recursos para admitir más implementaciones.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2030,19 +2001,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/support-policies-v4#supported-virtual-machine-sizes</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/applying-autoscaling.html</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>19db6128-1269-4040-a4ba-4d3e0804276d</t>
+          <t>87ab177a-db59-4f6b-a613-334fd09dc234</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2063,7 +2029,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Implemente comprobaciones de estado de la máquina para reparar automáticamente las máquinas dañadas en un grupo de máquinas.</t>
+          <t>Use tamaños de máquina virtual que sean lo suficientemente grandes como para contener varias instancias de contenedor para obtener los beneficios de una mayor densidad, pero no tan grandes como para que el clúster no pueda manejar la carga de trabajo de un nodo con errores.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2080,19 +2046,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/deploying-machine-health-checks.html</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/azure/openshift/support-policies-v4#supported-virtual-machine-sizes</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>4b98b15c-8b31-4aa5-aceb-58889135e227</t>
+          <t>19db6128-1269-4040-a4ba-4d3e0804276d</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2113,7 +2074,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Use un sistema de alertas para proporcionar notificaciones cuando las cosas necesiten una acción directa: alertas de métricas de Container Insights o interfaz de usuario de alertas integrada.</t>
+          <t>Implemente comprobaciones de estado de máquinas para reparar automáticamente las máquinas dañadas en un grupo de máquinas.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2130,19 +2091,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-metric-alerts</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/deploying-machine-health-checks.html</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>896d31b6-6c67-4ba5-a119-c08e8f5d587c</t>
+          <t>4b98b15c-8b31-4aa5-aceb-58889135e227</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2163,7 +2119,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que el clúster se crea en una región que admita zonas de disponibilidad y cree un conjunto de máquinas para cada zona de disponibilidad.</t>
+          <t>Utilice un sistema de alertas para proporcionar notificaciones cuando las cosas requieran una acción directa: alertas de métricas de Container Insights o interfaz de usuario de alertas integrada.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2180,19 +2136,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview#availability-zones</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>7e9ced16-acd1-476e-b9b2-41a998a57ae7</t>
+          <t>896d31b6-6c67-4ba5-a119-c08e8f5d587c</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2213,13 +2164,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Cree conjuntos de máquinas de infraestructura para contener componentes de infraestructura. Aplique etiquetas específicas de Kubernetes a estas máquinas y, a continuación, actualice los componentes de infraestructura para que se ejecuten solo en esas máquinas.</t>
+          <t>Asegúrese de que el clúster se crea en una región que admita zonas de disponibilidad y cree un conjunto de máquinas para cada zona de disponibilidad.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2230,19 +2181,15 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/creating-infrastructure-machinesets.html</t>
-        </is>
-      </c>
-      <c r="I32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview#availability-zones</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>7b997e71-1b7d-4a8c-baa6-6e15d4d5ada9</t>
+          <t>7e9ced16-acd1-476e-b9b2-41a998a57ae7</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2263,13 +2210,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Cree una copia de seguridad de la aplicación y planifique la restauración e incluya volúmenes persistentes en la copia de seguridad.</t>
+          <t>Cree conjuntos de máquinas de infraestructura para contener componentes de infraestructura. Aplique etiquetas específicas de Kubernetes a estas máquinas y, a continuación, actualice los componentes de la infraestructura para que se ejecuten solo en esas máquinas.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2280,19 +2227,15 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-backup#create-a-backup-with-velero-to-include-snapshots</t>
-        </is>
-      </c>
-      <c r="I33" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/creating-infrastructure-machinesets.html</t>
+        </is>
+      </c>
+      <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>7dc3e232-6bb2-435c-905e-1696fdedfa8a</t>
+          <t>7b997e71-1b7d-4a8c-baa6-6e15d4d5ada9</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2313,13 +2256,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Use prioridades de pods, de modo que en caso de recursos limitados se ejecuten los pods más críticos.</t>
+          <t>Cree una copia de seguridad de la aplicación y planifique la restauración e incluya volúmenes persistentes en la copia de seguridad.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2330,7 +2273,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-priority.html</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-backup#create-a-backup-with-velero-to-include-snapshots</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2338,7 +2281,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>81c12318-1a64-4174-8583-3fb4ae3c2df7</t>
+          <t>7dc3e232-6bb2-435c-905e-1696fdedfa8a</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2354,12 +2297,12 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Regule las funciones del clúster mediante complementos de admisión, que se utilizan habitualmente para aplicar directivas de seguridad, limitaciones de recursos o requisitos de configuración.</t>
+          <t>Utilice las prioridades de los pods, de modo que, en caso de recursos limitados, se ejecuten los pods más críticos.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2376,7 +2319,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/architecture/admission-plug-ins.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-priority.html</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2384,7 +2327,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>43166c3b-cbe0-45bb-b209-d4a0da577784</t>
+          <t>81c12318-1a64-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2405,7 +2348,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Almacene las imágenes de contenedor en Azure Container Registry y replique geográficamente el Registro en cada región.</t>
+          <t>Regule las funciones de clúster mediante complementos de admisión, que se utilizan normalmente para aplicar la política de seguridad, las limitaciones de recursos o los requisitos de configuración.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2422,7 +2365,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
+          <t>https://docs.openshift.com/container-platform/4.13/architecture/admission-plug-ins.html</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2430,7 +2373,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>24d21678-5d2f-4a56-a56a-d48408fe8273</t>
+          <t>43166c3b-cbe0-45bb-b209-d4a0da577784</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2446,18 +2389,18 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Carga de trabajo</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Optimice los valores de solicitud de CPU y memoria, y maximice la eficiencia de los recursos del clúster mediante el escalador automático de pods verticales.</t>
+          <t>Almacene las imágenes de contenedor en Azure Container Registry y realice una replicación geográfica del registro en cada región.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2468,7 +2411,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-vertical-autoscaler.html</t>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2476,7 +2419,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>4c486ba2-80dc-4059-8cf7-5ee8e1309ccc</t>
+          <t>24d21678-5d2f-4a56-a56a-d48408fe8273</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2497,7 +2440,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Agregue sondeos de estado a los pods para supervisar el estado de la aplicación. Asegúrese de que los pods contengan livenessProbe y readinessProbe. Utilice sondeos de inicio para determinar el punto en el que se ha iniciado la aplicación.</t>
+          <t>Optimice los valores de solicitud de CPU y memoria, y maximice la eficiencia de los recursos del clúster mediante el escalador automático vertical de pods.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2514,7 +2457,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/application-health.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-vertical-autoscaler.html</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2522,7 +2465,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>d579366b-cda2-4750-aa1a-bfe9d55d14c3</t>
+          <t>4c486ba2-80dc-4059-8cf7-5ee8e1309ccc</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2543,7 +2486,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Escale pods para satisfacer la demanda utilizando el escalador automático de pods horizontales.</t>
+          <t>Agregue sondeos de estado a los pods para supervisar el estado de la aplicación. Asegúrese de que los pods contengan livenessProbe y readinessProbe. Utilice Sondeos de inicio para determinar el punto en el que se ha iniciado la aplicación.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2560,19 +2503,15 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-autoscaling.html</t>
-        </is>
-      </c>
-      <c r="I39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/application-health.html</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>c4929cb1-b3d1-4325-ae12-4ba34d0685ed</t>
+          <t>d579366b-cda2-4750-aa1a-bfe9d55d14c3</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2593,7 +2532,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Utilice presupuestos de interrupción para asegurarse de que existe el número necesario de réplicas de pods para manejar la carga esperada de las aplicaciones.</t>
+          <t>Escale los pods para satisfacer la demanda mediante el escalador automático de pods horizontal.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2610,19 +2549,15 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-configuring.html#nodes-pods-pod-distruption-about_nodes-pods-configuring</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-autoscaling.html</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>dce9be3b-b0dd-4b3b-95fb-2ec14eeaa359</t>
+          <t>c4929cb1-b3d1-4325-ae12-4ba34d0685ed</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2643,7 +2578,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Utilice restricciones de topología de pod para programar automáticamente pods en los nodos de todo el clúster.</t>
+          <t>Utilice presupuestos de interrupción para asegurarse de que existe el número necesario de réplicas de pods para controlar la carga esperada de aplicaciones.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2660,19 +2595,15 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/scheduling/nodes-scheduler-pod-topology-spread-constraints.html</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-configuring.html#nodes-pods-pod-distruption-about_nodes-pods-configuring</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6791b4935ada</t>
+          <t>dce9be3b-b0dd-4b3b-95fb-2ec14eeaa359</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2683,7 +2614,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas</t>
+          <t>Gestión de operaciones</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
@@ -2693,13 +2624,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Considere estrategias azul/verde o canarias para implementar nuevas versiones de aplicaciones.</t>
+          <t>Utilice las restricciones de topología de pods para programar automáticamente pods en los nodos de todo el clúster.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2710,7 +2641,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/deployments/route-based-deployment-strategies.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/scheduling/nodes-scheduler-pod-topology-spread-constraints.html</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2718,7 +2649,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>42324ece-81c1-4231-a1a6-417415833fb4</t>
+          <t>2829e2ed-b217-4367-9aff-6791b4935ada</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2729,7 +2660,7 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>Automatización de plataformas</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
@@ -2739,7 +2670,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de utilizar Red Hat OpenShift GitOps. Red Hat OpenShift GitOps utiliza Argo CD para mantener los recursos del clúster y admitir CI/CD de aplicaciones.</t>
+          <t>Considere las estrategias azul/verde o canary para implementar nuevas versiones de la aplicación.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2756,7 +2687,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/cicd/gitops/understanding-openshift-gitops.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/deployments/route-based-deployment-strategies.html</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2764,7 +2695,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>ae3c2df7-4316-46c3-acbe-05bbe209d4a0</t>
+          <t>42324ece-81c1-4231-a1a6-417415833fb4</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2775,23 +2706,23 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Plano de control</t>
+          <t>Carga de trabajo</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Mantenga sus clústeres en la última versión de OpenShift para evitar posibles problemas de seguridad o actualización.</t>
+          <t>Considere la posibilidad de utilizar Red Hat OpenShift GitOps. Red Hat OpenShift GitOps utiliza Argo CD para mantener los recursos del clúster y dar soporte a CI/CD de aplicaciones.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2802,7 +2733,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/support-lifecycle</t>
+          <t>https://docs.openshift.com/container-platform/4.13/cicd/gitops/understanding-openshift-gitops.html</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2810,7 +2741,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>da577784-24d2-4167-a5d2-fa56c56ad484</t>
+          <t>ae3c2df7-4316-46c3-acbe-05bbe209d4a0</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2831,7 +2762,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Conecte clústeres de Red Hat OpenShift de Azure a Kubernetes habilitado para Azure Arc.</t>
+          <t>Mantenga los clústeres en la versión más reciente de OpenShift para evitar posibles problemas de seguridad o actualización.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2848,14 +2779,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/quickstart-connect-cluster</t>
+          <t>https://learn.microsoft.com/azure/openshift/support-lifecycle</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>08fe8273-4c48-46ba-880d-c0591cf75ee8</t>
+          <t>da577784-24d2-4167-a5d2-fa56c56ad484</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2871,18 +2802,18 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Plano de control</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Para los clústeres de Azure Red Hat OpenShift 4, los datos etcd no se cifran de forma predeterminada, pero se recomienda habilitar el cifrado etcd para proporcionar otra capa de seguridad de datos.</t>
+          <t>Conecte clústeres de Red Hat OpenShift en Azure a Kubernetes habilitado para Azure Arc.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2893,7 +2824,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.10/security/encrypting-etcd.html</t>
+          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/quickstart-connect-cluster</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2901,7 +2832,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>e1309ccc-d579-4366-acda-2750aa1abfe9</t>
+          <t>08fe8273-4c48-46ba-880d-c0591cf75ee8</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2917,18 +2848,18 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Postura</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Use Microsoft Defender para contenedores compatibles con Kubernetes habilitado para Arc para proteger clústeres, contenedores y aplicaciones.</t>
+          <t>En el caso de los clústeres de Red Hat OpenShift 4 en Azure, los datos etcd no se cifran de forma predeterminada, pero se recomienda habilitar el cifrado etcd para proporcionar otra capa de seguridad de datos.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2939,7 +2870,7 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
+          <t>https://docs.openshift.com/container-platform/4.10/security/encrypting-etcd.html</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -2947,7 +2878,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>d55d14c3-c492-49cb-8b3d-1325ae124ba3</t>
+          <t>e1309ccc-d579-4366-acda-2750aa1abfe9</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2963,12 +2894,12 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Postura</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Para las aplicaciones que requieren acceso a información confidencial, utilice una entidad de servicio y AKV Secrets Provider con la extensión para clústeres de Kubernetes habilitados para Arc.</t>
+          <t>Use Microsoft Defender para contenedores compatible con Kubernetes habilitado para Arc para proteger clústeres, contenedores y aplicaciones.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2985,14 +2916,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/tutorial-akv-secrets-provider</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>4d0685ed-dce9-4be3-ab0d-db3b55fb2ec1</t>
+          <t>d55d14c3-c492-49cb-8b3d-1325ae124ba3</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3008,12 +2939,12 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Carga de trabajo</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Acceso seguro de pods a los recursos. Proporcione el menor número de permisos y evite el uso de la raíz o la escalada privilegiada.</t>
+          <t>En el caso de las aplicaciones que requieren acceso a información confidencial, use una entidad de servicio y el proveedor de secretos AKV con la extensión para clústeres de Kubernetes habilitados para Arc.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3030,14 +2961,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/developer-best-practices-pod-security#secure-pod-access-to-resources</t>
+          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/tutorial-akv-secrets-provider</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>4eeaa359-2829-4e2e-bb21-73676aff6791</t>
+          <t>4d0685ed-dce9-4be3-ab0d-db3b55fb2ec1</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3058,7 +2989,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Supervise y aplique la configuración mediante la extensión de directiva de Azure.</t>
+          <t>Proteja el acceso de los pods a los recursos. Proporcione el menor número de permisos y evite el uso de la raíz o la escalación con privilegios.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3075,7 +3006,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes#install-azure-policy-extension-for-azure-arc-enabled-kubernetes</t>
+          <t>https://learn.microsoft.com/azure/aks/developer-best-practices-pod-security#secure-pod-access-to-resources</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -3083,7 +3014,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>b4935ada-4232-44ec-b81c-123181a64174</t>
+          <t>4eeaa359-2829-4e2e-bb21-73676aff6791</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3104,13 +3035,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Escanea tus imágenes en busca de vulnerabilidades con Microsoft Defender o cualquier otra solución de escaneo de imágenes.</t>
+          <t>Supervise y aplique la configuración mediante la extensión de Azure Policy.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3121,7 +3052,7 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes#install-azure-policy-extension-for-azure-arc-enabled-kubernetes</t>
         </is>
       </c>
       <c r="I51" s="15" t="n"/>
@@ -3129,7 +3060,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>15833fb4-ae3c-42df-9431-66c3bcbe05bb</t>
+          <t>b4935ada-4232-44ec-b81c-123181a64174</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3150,13 +3081,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Implemente una instancia dedicada y privada de Azure Container Registry en cada suscripción de zona de aterrizaje.</t>
+          <t>Examine las imágenes en busca de vulnerabilidades con Microsoft Defender o cualquier otra solución de análisis de imágenes.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3167,7 +3098,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3175,7 +3106,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>e209d4a0-da57-4778-924d-216785d2fa56</t>
+          <t>15833fb4-ae3c-42df-9431-66c3bcbe05bb</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3184,16 +3115,45 @@
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="n"/>
-      <c r="B53" s="21" t="n"/>
-      <c r="C53" s="21" t="n"/>
+      <c r="A53" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="B53" s="21" t="inlineStr">
+        <is>
+          <t>Carga de trabajo</t>
+        </is>
+      </c>
+      <c r="C53" s="21" t="inlineStr">
+        <is>
+          <t>Implemente una instancia dedicada y privada de Azure Container Registry en cada suscripción de zona de aterrizaje.</t>
+        </is>
+      </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="n"/>
+      <c r="H53" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+        </is>
+      </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="n"/>
+      <c r="L53" s="25" t="inlineStr">
+        <is>
+          <t>e209d4a0-da57-4778-924d-216785d2fa56</t>
+        </is>
+      </c>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
@@ -7177,7 +7137,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F53" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F54" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7337,7 +7297,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta comprobación se ha comprobado y no hay más elementos de acción asociados a ella</t>
+          <t>Esta comprobación se ha verificado y no hay más elementos de acción asociados a ella</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -7349,12 +7309,12 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>No es necesario</t>
+          <t>Riesgo aceptado</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Automatización de plataformas</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
